--- a/results/Res.xlsx
+++ b/results/Res.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BigHa\OneDrive - UCLA IT Services\Desktop\Papers\HL_Contrast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0265F7-0B1E-46D0-893D-74C469D2CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB12B1A2-221A-4851-B15E-0913FE4FA28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Chameleon</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>downstream task</t>
+  </si>
+  <si>
+    <t>FAGCN</t>
+  </si>
+  <si>
+    <t>HLGCN</t>
+  </si>
+  <si>
+    <t>10% data</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>476579</xdr:colOff>
+      <xdr:colOff>316559</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>144251</xdr:rowOff>
     </xdr:to>
@@ -440,15 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -600,6 +611,59 @@
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0.34678194044188199</v>
+      </c>
+      <c r="C30">
+        <v>0.49342105263157798</v>
+      </c>
+      <c r="D30">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>0.48670000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="D31">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
